--- a/data/roster-eoy-2021.xlsx
+++ b/data/roster-eoy-2021.xlsx
@@ -8,13 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josh/Dropbox/Resources/shiva-bowl/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03EAE272-122D-C046-85B0-9D5ED4FE0FB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A7C933-C068-454B-8692-FC75BF79D327}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16480" yWindow="2660" windowWidth="16460" windowHeight="16940" xr2:uid="{DB6D0198-058E-824F-9201-B516A4C61421}"/>
+    <workbookView xWindow="8100" yWindow="2640" windowWidth="24840" windowHeight="16940" xr2:uid="{DB6D0198-058E-824F-9201-B516A4C61421}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$204</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>keeper_value</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="244">
   <si>
     <t>team</t>
   </si>
@@ -37,6 +41,729 @@
   </si>
   <si>
     <t>player</t>
+  </si>
+  <si>
+    <t>Jalen Hurts</t>
+  </si>
+  <si>
+    <t>Odell Beckham Jr.</t>
+  </si>
+  <si>
+    <t>Gabriel Davis</t>
+  </si>
+  <si>
+    <t>Joe Mixon</t>
+  </si>
+  <si>
+    <t>Rashaad Penny</t>
+  </si>
+  <si>
+    <t>Dawson Knox</t>
+  </si>
+  <si>
+    <t>Boston Scott</t>
+  </si>
+  <si>
+    <t>Jordan Howard</t>
+  </si>
+  <si>
+    <t>Michael Pittman Jr.</t>
+  </si>
+  <si>
+    <t>Jeff Wilson Jr.</t>
+  </si>
+  <si>
+    <t>Brandon Aiyuk</t>
+  </si>
+  <si>
+    <t>Pat Freiermuth</t>
+  </si>
+  <si>
+    <t>Cam Akers</t>
+  </si>
+  <si>
+    <t>Trey Lance</t>
+  </si>
+  <si>
+    <t>Christian McCaffrey </t>
+  </si>
+  <si>
+    <t>Michael Thomas</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Catch 22</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Amari Cooper</t>
+  </si>
+  <si>
+    <t>DJ Moore</t>
+  </si>
+  <si>
+    <t>Courtland Sutton</t>
+  </si>
+  <si>
+    <t>Melvin Gordon III</t>
+  </si>
+  <si>
+    <t>Antonio Gibson </t>
+  </si>
+  <si>
+    <t>Jaylen Waddle</t>
+  </si>
+  <si>
+    <t>Darnell Mooney</t>
+  </si>
+  <si>
+    <t>New England</t>
+  </si>
+  <si>
+    <t>Dalvin Cook</t>
+  </si>
+  <si>
+    <t>Grape Juicers</t>
+  </si>
+  <si>
+    <t>Patrick Mahomes </t>
+  </si>
+  <si>
+    <t>Chris Godwin</t>
+  </si>
+  <si>
+    <t>Darrell Henderson Jr.</t>
+  </si>
+  <si>
+    <t>Mike Davis</t>
+  </si>
+  <si>
+    <t>Brandin Cooks</t>
+  </si>
+  <si>
+    <t>Tyler Higbee</t>
+  </si>
+  <si>
+    <t>DeVonta Smith</t>
+  </si>
+  <si>
+    <t>J.D. McKissic</t>
+  </si>
+  <si>
+    <t>Greg Zuerlein</t>
+  </si>
+  <si>
+    <t>Cole Beasley</t>
+  </si>
+  <si>
+    <t>Russell Gage</t>
+  </si>
+  <si>
+    <t>Jared Cook</t>
+  </si>
+  <si>
+    <t>Derrick Henry</t>
+  </si>
+  <si>
+    <t>🦝</t>
+  </si>
+  <si>
+    <t>James Robinson</t>
+  </si>
+  <si>
+    <t>Mark Andrews</t>
+  </si>
+  <si>
+    <t>Kenny Golladay</t>
+  </si>
+  <si>
+    <t>Sony Michel</t>
+  </si>
+  <si>
+    <t>Michael Carter</t>
+  </si>
+  <si>
+    <t>Lamar Jackson </t>
+  </si>
+  <si>
+    <t>Alexander Mattison</t>
+  </si>
+  <si>
+    <t>Justin Tucker</t>
+  </si>
+  <si>
+    <t>Baltimore</t>
+  </si>
+  <si>
+    <t>Rashod Bateman</t>
+  </si>
+  <si>
+    <t>Alvin Kamara</t>
+  </si>
+  <si>
+    <t>Eli for President</t>
+  </si>
+  <si>
+    <t>David Montgomery</t>
+  </si>
+  <si>
+    <t>Robert Woods</t>
+  </si>
+  <si>
+    <t>Adam Thielen</t>
+  </si>
+  <si>
+    <t>Tom Brady</t>
+  </si>
+  <si>
+    <t>Jakobi Meyers</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>Ryan Succop</t>
+  </si>
+  <si>
+    <t>Justin Herbert </t>
+  </si>
+  <si>
+    <t>DeAndre Hopkins </t>
+  </si>
+  <si>
+    <t>Hurtin Albertan</t>
+  </si>
+  <si>
+    <t>Travis Kelce </t>
+  </si>
+  <si>
+    <t>Cooper Kupp</t>
+  </si>
+  <si>
+    <t>Myles Gaskin</t>
+  </si>
+  <si>
+    <t>Kyler Murray</t>
+  </si>
+  <si>
+    <t>Mike Williams</t>
+  </si>
+  <si>
+    <t>Harrison Butker</t>
+  </si>
+  <si>
+    <t>Austin Hooper</t>
+  </si>
+  <si>
+    <t>Nelson Agholor</t>
+  </si>
+  <si>
+    <t>Tampa Bay</t>
+  </si>
+  <si>
+    <t>A.J. Green</t>
+  </si>
+  <si>
+    <t>Derek Carr</t>
+  </si>
+  <si>
+    <t>Nick Chubb</t>
+  </si>
+  <si>
+    <t>Keytawnsaurus Rex 🦖</t>
+  </si>
+  <si>
+    <t>Chris Carson</t>
+  </si>
+  <si>
+    <t>George Kittle</t>
+  </si>
+  <si>
+    <t>Diontae Johnson</t>
+  </si>
+  <si>
+    <t>Javonte Williams</t>
+  </si>
+  <si>
+    <t>Tyler Boyd</t>
+  </si>
+  <si>
+    <t>Josh Allen </t>
+  </si>
+  <si>
+    <t>Jamaal Williams</t>
+  </si>
+  <si>
+    <t>DJ Chark Jr.</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>Rob Gronkowski</t>
+  </si>
+  <si>
+    <t>A.J. Brown </t>
+  </si>
+  <si>
+    <t>Austin Ekeler</t>
+  </si>
+  <si>
+    <t>Romeo Clyde Edwards Dallaire</t>
+  </si>
+  <si>
+    <t>Terry McLaurin</t>
+  </si>
+  <si>
+    <t>Josh Jacobs</t>
+  </si>
+  <si>
+    <t>Tyler Lockett</t>
+  </si>
+  <si>
+    <t>Kareem Hunt</t>
+  </si>
+  <si>
+    <t>AJ Dillon</t>
+  </si>
+  <si>
+    <t>Dallas Goedert</t>
+  </si>
+  <si>
+    <t>Jerry Jeudy </t>
+  </si>
+  <si>
+    <t>Michael Gallup</t>
+  </si>
+  <si>
+    <t>Kansas City</t>
+  </si>
+  <si>
+    <t>Joe Burrow</t>
+  </si>
+  <si>
+    <t>Ty Johnson</t>
+  </si>
+  <si>
+    <t>Ryan Tannehill </t>
+  </si>
+  <si>
+    <t>Najee Harris</t>
+  </si>
+  <si>
+    <t>Sorry Eiferted</t>
+  </si>
+  <si>
+    <t>Darren Waller</t>
+  </si>
+  <si>
+    <t>D'Andre Swift</t>
+  </si>
+  <si>
+    <t>Keenan Allen </t>
+  </si>
+  <si>
+    <t>Chase Edmonds</t>
+  </si>
+  <si>
+    <t>Ja'Marr Chase</t>
+  </si>
+  <si>
+    <t>Noah Fant</t>
+  </si>
+  <si>
+    <t>CeeDee Lamb </t>
+  </si>
+  <si>
+    <t>Chuba Hubbard</t>
+  </si>
+  <si>
+    <t>Travis Etienne Jr.</t>
+  </si>
+  <si>
+    <t>Jason Myers</t>
+  </si>
+  <si>
+    <t>Davante Adams</t>
+  </si>
+  <si>
+    <t>Mackenzie's Team</t>
+  </si>
+  <si>
+    <t>Clyde EdwardsHelaire</t>
+  </si>
+  <si>
+    <t>DK Metcalf </t>
+  </si>
+  <si>
+    <t>Russell Wilson</t>
+  </si>
+  <si>
+    <t>Chase Claypool</t>
+  </si>
+  <si>
+    <t>James Conner</t>
+  </si>
+  <si>
+    <t>Antonio Brown</t>
+  </si>
+  <si>
+    <t>Justin Jefferson </t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Matt Gay</t>
+  </si>
+  <si>
+    <t>Aaron Jones </t>
+  </si>
+  <si>
+    <t>Hockenson balls</t>
+  </si>
+  <si>
+    <t>Calvin Ridley</t>
+  </si>
+  <si>
+    <t>Damien Harris</t>
+  </si>
+  <si>
+    <t>Ronald Jones II</t>
+  </si>
+  <si>
+    <t>Dak Prescott</t>
+  </si>
+  <si>
+    <t>Leonard Fournette</t>
+  </si>
+  <si>
+    <t>T.J. Hockenson </t>
+  </si>
+  <si>
+    <t>Marquise Brown</t>
+  </si>
+  <si>
+    <t>Tony Pollard</t>
+  </si>
+  <si>
+    <t>Tyler Bass</t>
+  </si>
+  <si>
+    <t>DeVante Parker</t>
+  </si>
+  <si>
+    <t>Indianapolis</t>
+  </si>
+  <si>
+    <t>Jamison Crowder</t>
+  </si>
+  <si>
+    <t>Ezekiel Elliott </t>
+  </si>
+  <si>
+    <t>red dragons</t>
+  </si>
+  <si>
+    <t>Stefon Diggs</t>
+  </si>
+  <si>
+    <t>Miles Sanders</t>
+  </si>
+  <si>
+    <t>Mike Evans</t>
+  </si>
+  <si>
+    <t>Logan Thomas</t>
+  </si>
+  <si>
+    <t>Deebo Samuel</t>
+  </si>
+  <si>
+    <t>Devin Singletary</t>
+  </si>
+  <si>
+    <t>Matthew Stafford</t>
+  </si>
+  <si>
+    <t>Gerald Everett</t>
+  </si>
+  <si>
+    <t>Tevin Coleman</t>
+  </si>
+  <si>
+    <t>Tee Higgins </t>
+  </si>
+  <si>
+    <t>Tyreek Hill </t>
+  </si>
+  <si>
+    <t>BadonkaGronk</t>
+  </si>
+  <si>
+    <t>Saquon Barkley</t>
+  </si>
+  <si>
+    <t>Jonathan Taylor </t>
+  </si>
+  <si>
+    <t>Kyle Pitts</t>
+  </si>
+  <si>
+    <t>Aaron Rodgers</t>
+  </si>
+  <si>
+    <t>Elijah Moore</t>
+  </si>
+  <si>
+    <t>Rhamondre Stevenson</t>
+  </si>
+  <si>
+    <t>Cleveland</t>
+  </si>
+  <si>
+    <t>Robbie Gould</t>
+  </si>
+  <si>
+    <t>drafted</t>
+  </si>
+  <si>
+    <t>acquisition_type</t>
+  </si>
+  <si>
+    <t>round_original</t>
+  </si>
+  <si>
+    <t>round_value</t>
+  </si>
+  <si>
+    <t>team_original</t>
+  </si>
+  <si>
+    <t>owner_original</t>
+  </si>
+  <si>
+    <t>Josh</t>
+  </si>
+  <si>
+    <t>Neil</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Rex Burkhead</t>
+  </si>
+  <si>
+    <t>Justin Jackson</t>
+  </si>
+  <si>
+    <t>Foster Moreau</t>
+  </si>
+  <si>
+    <t>Derrick Gore</t>
+  </si>
+  <si>
+    <t>Ke'Shawn Vaughn</t>
+  </si>
+  <si>
+    <t>Kyle</t>
+  </si>
+  <si>
+    <t>Eli Mitchell</t>
+  </si>
+  <si>
+    <t>K.J. Osborn</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Keaton</t>
+  </si>
+  <si>
+    <t>Hunter Henry</t>
+  </si>
+  <si>
+    <t>Donovan Peoples-Jones</t>
+  </si>
+  <si>
+    <t>Ameer Abdullah</t>
+  </si>
+  <si>
+    <t>Nick Westbrok-Ikhine</t>
+  </si>
+  <si>
+    <t>Carson Wentz</t>
+  </si>
+  <si>
+    <t>Nick Folk</t>
+  </si>
+  <si>
+    <t>Jesse</t>
+  </si>
+  <si>
+    <t>Kirk Cousins</t>
+  </si>
+  <si>
+    <t>Zach Ertz</t>
+  </si>
+  <si>
+    <t>Los Angeles (Rams)</t>
+  </si>
+  <si>
+    <t>Los Angeles (Chargers)</t>
+  </si>
+  <si>
+    <t>Graham</t>
+  </si>
+  <si>
+    <t>Latavius Murray</t>
+  </si>
+  <si>
+    <t>Devonta Freeman</t>
+  </si>
+  <si>
+    <t>Allen Lazard</t>
+  </si>
+  <si>
+    <t>Kendrick Bourne</t>
+  </si>
+  <si>
+    <t>Chris Boswell</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Zac</t>
+  </si>
+  <si>
+    <t>Van Jefferson</t>
+  </si>
+  <si>
+    <t>D'Onta Foreman</t>
+  </si>
+  <si>
+    <t>Dare Ogunbowale</t>
+  </si>
+  <si>
+    <t>Cordarrelle Patterson</t>
+  </si>
+  <si>
+    <t>Taysom Hill</t>
+  </si>
+  <si>
+    <t>Devontae Booker</t>
+  </si>
+  <si>
+    <t>Khalil Herbert</t>
+  </si>
+  <si>
+    <t>Deshaun Watson</t>
+  </si>
+  <si>
+    <t>J.K. Dobbins</t>
+  </si>
+  <si>
+    <t>Greg Joseph</t>
+  </si>
+  <si>
+    <t>New Orleans</t>
+  </si>
+  <si>
+    <t>Tim Patrick</t>
+  </si>
+  <si>
+    <t>D'Ernest Johnson</t>
+  </si>
+  <si>
+    <t>Christian Kirk</t>
+  </si>
+  <si>
+    <t>Jimmy Garoppolo</t>
+  </si>
+  <si>
+    <t>C.J. Uzomah</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Tyler Conklin</t>
+  </si>
+  <si>
+    <t>Hunter Renfrow</t>
+  </si>
+  <si>
+    <t>Daniel Carlson</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>Amon-Ra St. Brown</t>
+  </si>
+  <si>
+    <t>Dalton Schultz</t>
+  </si>
+  <si>
+    <t>David Njoku</t>
+  </si>
+  <si>
+    <t>Darrel Williams</t>
+  </si>
+  <si>
+    <t>Samaje Perine</t>
+  </si>
+  <si>
+    <t>Kadarius Toney</t>
+  </si>
+  <si>
+    <t>Tarik Cohen</t>
+  </si>
+  <si>
+    <t>Mason Crosby</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Green Bay</t>
+  </si>
+  <si>
+    <t>Waiver</t>
+  </si>
+  <si>
+    <t>Free agent</t>
+  </si>
+  <si>
+    <t>Trade</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Waivers</t>
+  </si>
+  <si>
+    <t>keeper_year</t>
   </si>
 </sst>
 </file>
@@ -89,6 +816,608 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2">
+            <v>11</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>Marvin Jones Jr.</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>Grape Juicers</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>Daniel</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>13</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>Henry Ruggs III</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>🦝</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>Neil</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>14</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>Justin Fields</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>🦝</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>Neil</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>15</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>Darrynton Evans</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>🦝</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>Neil</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>5</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>Trey Sermon</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>Eli for President</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>Jeff</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>6</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>Corey Davis</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>Eli for President</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>Jeff</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>9</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>Marquez Callaway</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>Eli for President</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>Jeff</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>10</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>James White</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>Eli for President</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>Jeff</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>11</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>Jonnu Smith</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>Eli for President</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>Jeff</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>14</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>Evan Engram</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>Eli for President</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>Jeff</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>15</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>Raheem Mostert </v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>Eli for President</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>Jeff</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>6</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>Nyheim Hines</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>Hurtin Albertan</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>Graham</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>9</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>David Johnson</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>Hurtin Albertan</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>Graham</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>14</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>Mark Ingram II</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>Hurtin Albertan</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>Graham</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>15</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>Marlon Mack</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>Hurtin Albertan</v>
+          </cell>
+          <cell r="E17" t="str">
+            <v>Graham</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>10</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>Curtis Samuel</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>Keytawnsaurus Rex 🦖</v>
+          </cell>
+          <cell r="E18" t="str">
+            <v>Keaton</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>12</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>Matt Ryan</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>Keytawnsaurus Rex 🦖</v>
+          </cell>
+          <cell r="E19" t="str">
+            <v>Keaton</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>14</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>Jalen Reagor</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>Keytawnsaurus Rex 🦖</v>
+          </cell>
+          <cell r="E20" t="str">
+            <v>Keaton</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>16</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>Matt Prater</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>Keytawnsaurus Rex 🦖</v>
+          </cell>
+          <cell r="E21" t="str">
+            <v>Keaton</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>6</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>JuJu SmithSchuster</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>Romeo Clyde Edwards Dallaire</v>
+          </cell>
+          <cell r="E22" t="str">
+            <v>Kyle</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>11</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>Mecole Hardman</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>Romeo Clyde Edwards Dallaire</v>
+          </cell>
+          <cell r="E23" t="str">
+            <v>Kyle</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>12</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>Younghoe Koo</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>Romeo Clyde Edwards Dallaire</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>Kyle</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>9</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>Robert Tonyan</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>Catch 22</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>John</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>12</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>Malcolm Brown</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>Catch 22</v>
+          </cell>
+          <cell r="E26" t="str">
+            <v>John</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>13</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>Baker Mayfield</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>Catch 22</v>
+          </cell>
+          <cell r="E27" t="str">
+            <v>John</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>15</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>Jason Sanders</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>Catch 22</v>
+          </cell>
+          <cell r="E28" t="str">
+            <v>John</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>16</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>Tua Tagovailoa</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>Catch 22</v>
+          </cell>
+          <cell r="E29" t="str">
+            <v>John</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>7</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>Zack Moss</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>Sorry Eiferted</v>
+          </cell>
+          <cell r="E30" t="str">
+            <v>Jesse</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>10</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>Trevor Lawrence</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>Sorry Eiferted</v>
+          </cell>
+          <cell r="E31" t="str">
+            <v>Jesse</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>11</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>Washington</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v>Sorry Eiferted</v>
+          </cell>
+          <cell r="E32" t="str">
+            <v>Jesse</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>12</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>Ryan Fitzpatrick</v>
+          </cell>
+          <cell r="D33" t="str">
+            <v>Sorry Eiferted</v>
+          </cell>
+          <cell r="E33" t="str">
+            <v>Jesse</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>15</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>Sterling Shepard</v>
+          </cell>
+          <cell r="D34" t="str">
+            <v>Sorry Eiferted</v>
+          </cell>
+          <cell r="E34" t="str">
+            <v>Jesse</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>3</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>Gus Edwards</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>Mackenzie's Team</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v>Adam</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>9</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>Will Fuller V</v>
+          </cell>
+          <cell r="D36" t="str">
+            <v>Mackenzie's Team</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v>Adam</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>11</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>Mike Gesicki</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>Mackenzie's Team</v>
+          </cell>
+          <cell r="E37" t="str">
+            <v>Adam</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>12</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>Giovani Bernard</v>
+          </cell>
+          <cell r="D38" t="str">
+            <v>Mackenzie's Team</v>
+          </cell>
+          <cell r="E38" t="str">
+            <v>Adam</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>13</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>Ty'Son Williams</v>
+          </cell>
+          <cell r="D39" t="str">
+            <v>Mackenzie's Team</v>
+          </cell>
+          <cell r="E39" t="str">
+            <v>Adam</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>15</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>Terrace Marshall Jr.</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>Mackenzie's Team</v>
+          </cell>
+          <cell r="E40" t="str">
+            <v>Adam</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>4</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>Julio Jones</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v>Hockenson balls</v>
+          </cell>
+          <cell r="E41" t="str">
+            <v>Zac</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>7</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>Laviska Shenault Jr.</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v>Hockenson balls</v>
+          </cell>
+          <cell r="E42" t="str">
+            <v>Zac</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>16</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>Emmanuel Sanders</v>
+          </cell>
+          <cell r="D43" t="str">
+            <v>Hockenson balls</v>
+          </cell>
+          <cell r="E43" t="str">
+            <v>Zac</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>5</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>Robbie Anderson</v>
+          </cell>
+          <cell r="D44" t="str">
+            <v>red dragons</v>
+          </cell>
+          <cell r="E44" t="str">
+            <v>William</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -388,29 +1717,4294 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7922ACB9-00F8-AC44-B501-D4F4886E17A9}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:J204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K180" sqref="K180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="8" max="9" width="14.83203125" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" t="s">
+        <v>182</v>
+      </c>
+      <c r="J10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" t="s">
+        <v>241</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>186</v>
+      </c>
+      <c r="J13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>173</v>
+      </c>
+      <c r="J14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>173</v>
+      </c>
+      <c r="J15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>173</v>
+      </c>
+      <c r="J16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" t="s">
+        <v>186</v>
+      </c>
+      <c r="J23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>228</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" t="s">
+        <v>174</v>
+      </c>
+      <c r="J25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>229</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s">
+        <v>174</v>
+      </c>
+      <c r="J26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
+        <v>174</v>
+      </c>
+      <c r="J27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>231</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" t="s">
+        <v>174</v>
+      </c>
+      <c r="J28" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>232</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" t="s">
+        <v>174</v>
+      </c>
+      <c r="J29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" t="s">
+        <v>174</v>
+      </c>
+      <c r="J30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>234</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" t="s">
+        <v>174</v>
+      </c>
+      <c r="J31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" t="s">
+        <v>174</v>
+      </c>
+      <c r="J32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>236</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" t="s">
+        <v>174</v>
+      </c>
+      <c r="J33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" t="s">
+        <v>174</v>
+      </c>
+      <c r="J34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" t="s">
+        <v>186</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" t="s">
+        <v>186</v>
+      </c>
+      <c r="G40">
+        <v>6</v>
+      </c>
+      <c r="H40" t="s">
+        <v>81</v>
+      </c>
+      <c r="I40" t="s">
+        <v>187</v>
+      </c>
+      <c r="J40" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" t="s">
+        <v>186</v>
+      </c>
+      <c r="G42">
+        <v>7</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>173</v>
+      </c>
+      <c r="J42" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" t="s">
+        <v>186</v>
+      </c>
+      <c r="G47">
+        <v>13</v>
+      </c>
+      <c r="H47" t="s">
+        <v>145</v>
+      </c>
+      <c r="I47" t="s">
+        <v>223</v>
+      </c>
+      <c r="J47" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>16</v>
+      </c>
+      <c r="B48" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" t="s">
+        <v>186</v>
+      </c>
+      <c r="J48" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>16</v>
+      </c>
+      <c r="B49" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" t="s">
+        <v>186</v>
+      </c>
+      <c r="J49" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>16</v>
+      </c>
+      <c r="B50" t="s">
+        <v>190</v>
+      </c>
+      <c r="C50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" t="s">
+        <v>186</v>
+      </c>
+      <c r="J50" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>16</v>
+      </c>
+      <c r="B51" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" t="s">
+        <v>186</v>
+      </c>
+      <c r="J51" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" t="s">
+        <v>186</v>
+      </c>
+      <c r="G52" t="s">
+        <v>241</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>173</v>
+      </c>
+      <c r="J52" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" t="s">
+        <v>68</v>
+      </c>
+      <c r="E54" t="s">
+        <v>199</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" t="s">
+        <v>199</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59" t="s">
+        <v>199</v>
+      </c>
+      <c r="G59">
+        <v>5</v>
+      </c>
+      <c r="H59" t="s">
+        <v>32</v>
+      </c>
+      <c r="I59" t="s">
+        <v>186</v>
+      </c>
+      <c r="J59" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" t="s">
+        <v>68</v>
+      </c>
+      <c r="E61" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>16</v>
+      </c>
+      <c r="B63" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" t="s">
+        <v>68</v>
+      </c>
+      <c r="E63" t="s">
+        <v>199</v>
+      </c>
+      <c r="G63">
+        <v>11</v>
+      </c>
+      <c r="H63" t="s">
+        <v>157</v>
+      </c>
+      <c r="I63" t="s">
+        <v>172</v>
+      </c>
+      <c r="J63" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>12</v>
+      </c>
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" t="s">
+        <v>68</v>
+      </c>
+      <c r="E64" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" t="s">
+        <v>68</v>
+      </c>
+      <c r="E65" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E66" t="s">
+        <v>199</v>
+      </c>
+      <c r="G66">
+        <v>13</v>
+      </c>
+      <c r="H66" t="s">
+        <v>32</v>
+      </c>
+      <c r="I66" t="s">
+        <v>186</v>
+      </c>
+      <c r="J66" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>16</v>
+      </c>
+      <c r="B67" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" t="s">
+        <v>68</v>
+      </c>
+      <c r="E67" t="s">
+        <v>199</v>
+      </c>
+      <c r="G67">
+        <v>15</v>
+      </c>
+      <c r="H67" t="s">
+        <v>131</v>
+      </c>
+      <c r="I67" t="s">
+        <v>206</v>
+      </c>
+      <c r="J67" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>16</v>
+      </c>
+      <c r="B68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" t="s">
+        <v>68</v>
+      </c>
+      <c r="E68" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>16</v>
+      </c>
+      <c r="B69" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" t="s">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>199</v>
+      </c>
+      <c r="J69" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s">
+        <v>118</v>
+      </c>
+      <c r="C70" t="s">
+        <v>22</v>
+      </c>
+      <c r="D70" t="s">
+        <v>68</v>
+      </c>
+      <c r="E70" t="s">
+        <v>199</v>
+      </c>
+      <c r="G70">
+        <v>16</v>
+      </c>
+      <c r="H70" t="s">
+        <v>108</v>
+      </c>
+      <c r="I70" t="s">
+        <v>194</v>
+      </c>
+      <c r="J70" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" t="s">
+        <v>81</v>
+      </c>
+      <c r="E72" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" t="s">
+        <v>81</v>
+      </c>
+      <c r="E73" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" t="s">
+        <v>81</v>
+      </c>
+      <c r="E74" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" t="s">
+        <v>81</v>
+      </c>
+      <c r="E75" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" t="s">
+        <v>81</v>
+      </c>
+      <c r="E76" t="s">
+        <v>187</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" t="s">
+        <v>81</v>
+      </c>
+      <c r="E77" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>11</v>
+      </c>
+      <c r="B78" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" t="s">
+        <v>81</v>
+      </c>
+      <c r="E78" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>11</v>
+      </c>
+      <c r="B79" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" t="s">
+        <v>81</v>
+      </c>
+      <c r="E79" t="s">
+        <v>187</v>
+      </c>
+      <c r="G79">
+        <v>11</v>
+      </c>
+      <c r="H79" t="s">
+        <v>20</v>
+      </c>
+      <c r="I79" t="s">
+        <v>21</v>
+      </c>
+      <c r="J79" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>13</v>
+      </c>
+      <c r="B80" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" t="s">
+        <v>81</v>
+      </c>
+      <c r="E80" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>14</v>
+      </c>
+      <c r="B81" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" t="s">
+        <v>81</v>
+      </c>
+      <c r="E81" t="s">
+        <v>187</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>16</v>
+      </c>
+      <c r="B82" t="s">
+        <v>201</v>
+      </c>
+      <c r="C82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" t="s">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>187</v>
+      </c>
+      <c r="J82" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>16</v>
+      </c>
+      <c r="B83" t="s">
+        <v>202</v>
+      </c>
+      <c r="C83" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" t="s">
+        <v>81</v>
+      </c>
+      <c r="E83" t="s">
+        <v>187</v>
+      </c>
+      <c r="J83" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>16</v>
+      </c>
+      <c r="B84" t="s">
+        <v>203</v>
+      </c>
+      <c r="C84" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" t="s">
+        <v>81</v>
+      </c>
+      <c r="E84" t="s">
+        <v>187</v>
+      </c>
+      <c r="J84" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>16</v>
+      </c>
+      <c r="B85" t="s">
+        <v>204</v>
+      </c>
+      <c r="C85" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" t="s">
+        <v>81</v>
+      </c>
+      <c r="E85" t="s">
+        <v>187</v>
+      </c>
+      <c r="J85" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>16</v>
+      </c>
+      <c r="B86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C86" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" t="s">
+        <v>81</v>
+      </c>
+      <c r="E86" t="s">
+        <v>187</v>
+      </c>
+      <c r="J86" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" t="s">
+        <v>94</v>
+      </c>
+      <c r="E87" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" t="s">
+        <v>94</v>
+      </c>
+      <c r="E88" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s">
+        <v>96</v>
+      </c>
+      <c r="C89" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" t="s">
+        <v>94</v>
+      </c>
+      <c r="E89" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" t="s">
+        <v>94</v>
+      </c>
+      <c r="E90" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" t="s">
+        <v>94</v>
+      </c>
+      <c r="E91" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s">
+        <v>99</v>
+      </c>
+      <c r="C92" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" t="s">
+        <v>94</v>
+      </c>
+      <c r="E92" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>100</v>
+      </c>
+      <c r="C93" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" t="s">
+        <v>94</v>
+      </c>
+      <c r="E93" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" t="s">
+        <v>94</v>
+      </c>
+      <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>13</v>
+      </c>
+      <c r="B95" t="s">
+        <v>103</v>
+      </c>
+      <c r="C95" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" t="s">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>14</v>
+      </c>
+      <c r="B96" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" t="s">
+        <v>94</v>
+      </c>
+      <c r="E96" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>16</v>
+      </c>
+      <c r="B97" t="s">
+        <v>165</v>
+      </c>
+      <c r="C97" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" t="s">
+        <v>94</v>
+      </c>
+      <c r="E97" t="s">
+        <v>182</v>
+      </c>
+      <c r="G97">
+        <v>15</v>
+      </c>
+      <c r="H97" t="s">
+        <v>157</v>
+      </c>
+      <c r="I97" t="s">
+        <v>172</v>
+      </c>
+      <c r="J97" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>15</v>
+      </c>
+      <c r="B98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C98" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" t="s">
+        <v>94</v>
+      </c>
+      <c r="E98" t="s">
+        <v>182</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>16</v>
+      </c>
+      <c r="B99" t="s">
+        <v>183</v>
+      </c>
+      <c r="C99" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99" t="s">
+        <v>94</v>
+      </c>
+      <c r="E99" t="s">
+        <v>182</v>
+      </c>
+      <c r="J99" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>16</v>
+      </c>
+      <c r="B100" t="s">
+        <v>44</v>
+      </c>
+      <c r="C100" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" t="s">
+        <v>94</v>
+      </c>
+      <c r="E100" t="s">
+        <v>182</v>
+      </c>
+      <c r="G100">
+        <v>16</v>
+      </c>
+      <c r="H100" t="s">
+        <v>32</v>
+      </c>
+      <c r="I100" t="s">
+        <v>186</v>
+      </c>
+      <c r="J100" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>16</v>
+      </c>
+      <c r="B101" t="s">
+        <v>184</v>
+      </c>
+      <c r="C101" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" t="s">
+        <v>94</v>
+      </c>
+      <c r="E101" t="s">
+        <v>182</v>
+      </c>
+      <c r="J101" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>16</v>
+      </c>
+      <c r="B102" t="s">
+        <v>185</v>
+      </c>
+      <c r="C102" t="s">
+        <v>22</v>
+      </c>
+      <c r="D102" t="s">
+        <v>94</v>
+      </c>
+      <c r="E102" t="s">
+        <v>182</v>
+      </c>
+      <c r="J102" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103" t="s">
+        <v>21</v>
+      </c>
+      <c r="F103">
+        <v>3</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>2</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" t="s">
+        <v>20</v>
+      </c>
+      <c r="E104" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>5</v>
+      </c>
+      <c r="B105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" t="s">
+        <v>22</v>
+      </c>
+      <c r="D105" t="s">
+        <v>20</v>
+      </c>
+      <c r="E105" t="s">
+        <v>21</v>
+      </c>
+      <c r="G105">
+        <v>5</v>
+      </c>
+      <c r="H105" t="s">
+        <v>46</v>
+      </c>
+      <c r="I105" t="s">
+        <v>173</v>
+      </c>
+      <c r="J105" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>16</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" t="s">
+        <v>22</v>
+      </c>
+      <c r="D106" t="s">
+        <v>20</v>
+      </c>
+      <c r="E106" t="s">
+        <v>21</v>
+      </c>
+      <c r="G106">
+        <v>6</v>
+      </c>
+      <c r="H106" t="s">
+        <v>157</v>
+      </c>
+      <c r="I106" t="s">
+        <v>172</v>
+      </c>
+      <c r="J106" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>8</v>
+      </c>
+      <c r="B107" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" t="s">
+        <v>20</v>
+      </c>
+      <c r="E107" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>16</v>
+      </c>
+      <c r="B108" t="s">
+        <v>74</v>
+      </c>
+      <c r="C108" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108" t="s">
+        <v>20</v>
+      </c>
+      <c r="E108" t="s">
+        <v>21</v>
+      </c>
+      <c r="G108">
+        <v>8</v>
+      </c>
+      <c r="H108" t="s">
+        <v>68</v>
+      </c>
+      <c r="I108" t="s">
+        <v>199</v>
+      </c>
+      <c r="J108" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>9</v>
+      </c>
+      <c r="B109" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" t="s">
+        <v>22</v>
+      </c>
+      <c r="D109" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109" t="s">
+        <v>21</v>
+      </c>
+      <c r="H109" t="s">
+        <v>157</v>
+      </c>
+      <c r="I109" t="s">
+        <v>172</v>
+      </c>
+      <c r="J109" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>10</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" t="s">
+        <v>22</v>
+      </c>
+      <c r="D110" t="s">
+        <v>20</v>
+      </c>
+      <c r="E110" t="s">
+        <v>21</v>
+      </c>
+      <c r="G110">
+        <v>10</v>
+      </c>
+      <c r="H110" t="s">
+        <v>157</v>
+      </c>
+      <c r="I110" t="s">
+        <v>172</v>
+      </c>
+      <c r="J110" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>14</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>22</v>
+      </c>
+      <c r="D111" t="s">
+        <v>20</v>
+      </c>
+      <c r="E111" t="s">
+        <v>21</v>
+      </c>
+      <c r="G111">
+        <v>14</v>
+      </c>
+      <c r="H111" t="s">
+        <v>32</v>
+      </c>
+      <c r="I111" t="s">
+        <v>186</v>
+      </c>
+      <c r="J111" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>16</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" t="s">
+        <v>22</v>
+      </c>
+      <c r="D112" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112" t="s">
+        <v>21</v>
+      </c>
+      <c r="J112" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>16</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>22</v>
+      </c>
+      <c r="D113" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113" t="s">
+        <v>21</v>
+      </c>
+      <c r="J113" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>16</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" t="s">
+        <v>22</v>
+      </c>
+      <c r="D114" t="s">
+        <v>20</v>
+      </c>
+      <c r="E114" t="s">
+        <v>21</v>
+      </c>
+      <c r="J114" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>16</v>
+      </c>
+      <c r="B115" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" t="s">
+        <v>22</v>
+      </c>
+      <c r="D115" t="s">
+        <v>20</v>
+      </c>
+      <c r="E115" t="s">
+        <v>21</v>
+      </c>
+      <c r="J115" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>16</v>
+      </c>
+      <c r="B116" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" t="s">
+        <v>22</v>
+      </c>
+      <c r="D116" t="s">
+        <v>20</v>
+      </c>
+      <c r="E116" t="s">
+        <v>21</v>
+      </c>
+      <c r="J116" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>16</v>
+      </c>
+      <c r="B117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" t="s">
+        <v>22</v>
+      </c>
+      <c r="D117" t="s">
+        <v>20</v>
+      </c>
+      <c r="E117" t="s">
+        <v>21</v>
+      </c>
+      <c r="J117" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>16</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>22</v>
+      </c>
+      <c r="D118" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118" t="s">
+        <v>21</v>
+      </c>
+      <c r="J118" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>16</v>
+      </c>
+      <c r="B119" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" t="s">
+        <v>22</v>
+      </c>
+      <c r="D119" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119" t="s">
+        <v>21</v>
+      </c>
+      <c r="G119">
+        <v>16</v>
+      </c>
+      <c r="H119" t="s">
+        <v>157</v>
+      </c>
+      <c r="I119" t="s">
+        <v>172</v>
+      </c>
+      <c r="J119" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>16</v>
+      </c>
+      <c r="B120" t="s">
+        <v>175</v>
+      </c>
+      <c r="C120" t="s">
+        <v>22</v>
+      </c>
+      <c r="D120" t="s">
+        <v>20</v>
+      </c>
+      <c r="E120" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121" t="s">
+        <v>107</v>
+      </c>
+      <c r="C121" t="s">
+        <v>19</v>
+      </c>
+      <c r="D121" t="s">
+        <v>108</v>
+      </c>
+      <c r="E121" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>2</v>
+      </c>
+      <c r="B122" t="s">
+        <v>109</v>
+      </c>
+      <c r="C122" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" t="s">
+        <v>108</v>
+      </c>
+      <c r="E122" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>3</v>
+      </c>
+      <c r="B123" t="s">
+        <v>110</v>
+      </c>
+      <c r="C123" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" t="s">
+        <v>108</v>
+      </c>
+      <c r="E123" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>3</v>
+      </c>
+      <c r="B124" t="s">
+        <v>111</v>
+      </c>
+      <c r="C124" t="s">
+        <v>19</v>
+      </c>
+      <c r="D124" t="s">
+        <v>108</v>
+      </c>
+      <c r="E124" t="s">
+        <v>194</v>
+      </c>
+      <c r="F124">
+        <v>2</v>
+      </c>
+      <c r="G124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>5</v>
+      </c>
+      <c r="B125" t="s">
+        <v>112</v>
+      </c>
+      <c r="C125" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" t="s">
+        <v>108</v>
+      </c>
+      <c r="E125" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>6</v>
+      </c>
+      <c r="B126" t="s">
+        <v>113</v>
+      </c>
+      <c r="C126" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126" t="s">
+        <v>108</v>
+      </c>
+      <c r="E126" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>8</v>
+      </c>
+      <c r="B127" t="s">
+        <v>114</v>
+      </c>
+      <c r="C127" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" t="s">
+        <v>108</v>
+      </c>
+      <c r="E127" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>8</v>
+      </c>
+      <c r="B128" t="s">
+        <v>51</v>
+      </c>
+      <c r="C128" t="s">
+        <v>22</v>
+      </c>
+      <c r="D128" t="s">
+        <v>108</v>
+      </c>
+      <c r="E128" t="s">
+        <v>194</v>
+      </c>
+      <c r="G128">
+        <v>8</v>
+      </c>
+      <c r="H128" t="s">
+        <v>46</v>
+      </c>
+      <c r="I128" t="s">
+        <v>173</v>
+      </c>
+      <c r="J128" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>8</v>
+      </c>
+      <c r="B129" t="s">
+        <v>115</v>
+      </c>
+      <c r="C129" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" t="s">
+        <v>108</v>
+      </c>
+      <c r="E129" t="s">
+        <v>194</v>
+      </c>
+      <c r="F129">
+        <v>2</v>
+      </c>
+      <c r="G129">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>10</v>
+      </c>
+      <c r="B130" t="s">
+        <v>102</v>
+      </c>
+      <c r="C130" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130" t="s">
+        <v>108</v>
+      </c>
+      <c r="E130" t="s">
+        <v>194</v>
+      </c>
+      <c r="G130">
+        <v>10</v>
+      </c>
+      <c r="H130" t="s">
+        <v>94</v>
+      </c>
+      <c r="I130" t="s">
+        <v>182</v>
+      </c>
+      <c r="J130" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>13</v>
+      </c>
+      <c r="B131" t="s">
+        <v>116</v>
+      </c>
+      <c r="C131" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131" t="s">
+        <v>108</v>
+      </c>
+      <c r="E131" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>13</v>
+      </c>
+      <c r="B132" t="s">
+        <v>141</v>
+      </c>
+      <c r="C132" t="s">
+        <v>22</v>
+      </c>
+      <c r="D132" t="s">
+        <v>108</v>
+      </c>
+      <c r="E132" t="s">
+        <v>194</v>
+      </c>
+      <c r="G132">
+        <v>13</v>
+      </c>
+      <c r="H132" t="s">
+        <v>131</v>
+      </c>
+      <c r="I132" t="s">
+        <v>206</v>
+      </c>
+      <c r="J132" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>13</v>
+      </c>
+      <c r="B133" t="s">
+        <v>65</v>
+      </c>
+      <c r="C133" t="s">
+        <v>22</v>
+      </c>
+      <c r="D133" t="s">
+        <v>108</v>
+      </c>
+      <c r="E133" t="s">
+        <v>194</v>
+      </c>
+      <c r="G133">
+        <v>13</v>
+      </c>
+      <c r="H133" t="s">
+        <v>58</v>
+      </c>
+      <c r="I133" t="s">
+        <v>174</v>
+      </c>
+      <c r="J133" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>14</v>
+      </c>
+      <c r="B134" t="s">
+        <v>117</v>
+      </c>
+      <c r="C134" t="s">
+        <v>19</v>
+      </c>
+      <c r="D134" t="s">
+        <v>108</v>
+      </c>
+      <c r="E134" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>16</v>
+      </c>
+      <c r="B135" t="s">
+        <v>195</v>
+      </c>
+      <c r="C135" t="s">
+        <v>22</v>
+      </c>
+      <c r="D135" t="s">
+        <v>108</v>
+      </c>
+      <c r="E135" t="s">
+        <v>194</v>
+      </c>
+      <c r="J135" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>16</v>
+      </c>
+      <c r="B136" t="s">
+        <v>196</v>
+      </c>
+      <c r="C136" t="s">
+        <v>22</v>
+      </c>
+      <c r="D136" t="s">
+        <v>108</v>
+      </c>
+      <c r="E136" t="s">
+        <v>194</v>
+      </c>
+      <c r="J136" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>16</v>
+      </c>
+      <c r="B137" t="s">
+        <v>198</v>
+      </c>
+      <c r="C137" t="s">
+        <v>22</v>
+      </c>
+      <c r="D137" t="s">
+        <v>108</v>
+      </c>
+      <c r="E137" t="s">
+        <v>194</v>
+      </c>
+      <c r="J137" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="B138" t="s">
+        <v>119</v>
+      </c>
+      <c r="C138" t="s">
+        <v>19</v>
+      </c>
+      <c r="D138" t="s">
+        <v>120</v>
+      </c>
+      <c r="E138" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>2</v>
+      </c>
+      <c r="B139" t="s">
+        <v>121</v>
+      </c>
+      <c r="C139" t="s">
+        <v>19</v>
+      </c>
+      <c r="D139" t="s">
+        <v>120</v>
+      </c>
+      <c r="E139" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>3</v>
+      </c>
+      <c r="B140" t="s">
+        <v>122</v>
+      </c>
+      <c r="C140" t="s">
+        <v>19</v>
+      </c>
+      <c r="D140" t="s">
+        <v>120</v>
+      </c>
+      <c r="E140" t="s">
+        <v>176</v>
+      </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
+      <c r="G140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>5</v>
+      </c>
+      <c r="B141" t="s">
+        <v>123</v>
+      </c>
+      <c r="C141" t="s">
+        <v>19</v>
+      </c>
+      <c r="D141" t="s">
+        <v>120</v>
+      </c>
+      <c r="E141" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>6</v>
+      </c>
+      <c r="B142" t="s">
+        <v>124</v>
+      </c>
+      <c r="C142" t="s">
+        <v>19</v>
+      </c>
+      <c r="D142" t="s">
+        <v>120</v>
+      </c>
+      <c r="E142" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>7</v>
+      </c>
+      <c r="B143" t="s">
+        <v>125</v>
+      </c>
+      <c r="C143" t="s">
+        <v>19</v>
+      </c>
+      <c r="D143" t="s">
+        <v>120</v>
+      </c>
+      <c r="E143" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>8</v>
+      </c>
+      <c r="B144" t="s">
+        <v>126</v>
+      </c>
+      <c r="C144" t="s">
+        <v>19</v>
+      </c>
+      <c r="D144" t="s">
+        <v>120</v>
+      </c>
+      <c r="E144" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>9</v>
+      </c>
+      <c r="B145" t="s">
+        <v>127</v>
+      </c>
+      <c r="C145" t="s">
+        <v>19</v>
+      </c>
+      <c r="D145" t="s">
+        <v>120</v>
+      </c>
+      <c r="E145" t="s">
+        <v>176</v>
+      </c>
+      <c r="F145">
+        <v>2</v>
+      </c>
+      <c r="G145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>14</v>
+      </c>
+      <c r="B146" t="s">
+        <v>128</v>
+      </c>
+      <c r="C146" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" t="s">
+        <v>120</v>
+      </c>
+      <c r="E146" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>14</v>
+      </c>
+      <c r="B147" t="s">
+        <v>30</v>
+      </c>
+      <c r="C147" t="s">
+        <v>22</v>
+      </c>
+      <c r="D147" t="s">
+        <v>120</v>
+      </c>
+      <c r="E147" t="s">
+        <v>176</v>
+      </c>
+      <c r="G147">
+        <v>14</v>
+      </c>
+      <c r="H147" t="s">
+        <v>20</v>
+      </c>
+      <c r="I147" t="s">
+        <v>21</v>
+      </c>
+      <c r="J147" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>16</v>
+      </c>
+      <c r="B148" t="s">
+        <v>129</v>
+      </c>
+      <c r="C148" t="s">
+        <v>19</v>
+      </c>
+      <c r="D148" t="s">
+        <v>120</v>
+      </c>
+      <c r="E148" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>16</v>
+      </c>
+      <c r="B149" t="s">
+        <v>177</v>
+      </c>
+      <c r="C149" t="s">
+        <v>22</v>
+      </c>
+      <c r="D149" t="s">
+        <v>120</v>
+      </c>
+      <c r="E149" t="s">
+        <v>176</v>
+      </c>
+      <c r="J149" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>16</v>
+      </c>
+      <c r="B150" t="s">
+        <v>178</v>
+      </c>
+      <c r="C150" t="s">
+        <v>22</v>
+      </c>
+      <c r="D150" t="s">
+        <v>120</v>
+      </c>
+      <c r="E150" t="s">
+        <v>176</v>
+      </c>
+      <c r="J150" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>16</v>
+      </c>
+      <c r="B151" t="s">
+        <v>179</v>
+      </c>
+      <c r="C151" t="s">
+        <v>22</v>
+      </c>
+      <c r="D151" t="s">
+        <v>120</v>
+      </c>
+      <c r="E151" t="s">
+        <v>176</v>
+      </c>
+      <c r="J151" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>16</v>
+      </c>
+      <c r="B152" t="s">
+        <v>180</v>
+      </c>
+      <c r="C152" t="s">
+        <v>22</v>
+      </c>
+      <c r="D152" t="s">
+        <v>120</v>
+      </c>
+      <c r="E152" t="s">
+        <v>176</v>
+      </c>
+      <c r="J152" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>16</v>
+      </c>
+      <c r="B153" t="s">
+        <v>181</v>
+      </c>
+      <c r="C153" t="s">
+        <v>22</v>
+      </c>
+      <c r="D153" t="s">
+        <v>120</v>
+      </c>
+      <c r="E153" t="s">
+        <v>176</v>
+      </c>
+      <c r="J153" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>1</v>
+      </c>
+      <c r="B154" t="s">
+        <v>130</v>
+      </c>
+      <c r="C154" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" t="s">
+        <v>131</v>
+      </c>
+      <c r="E154" t="s">
+        <v>206</v>
+      </c>
+      <c r="F154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>2</v>
+      </c>
+      <c r="B155" t="s">
+        <v>132</v>
+      </c>
+      <c r="C155" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" t="s">
+        <v>131</v>
+      </c>
+      <c r="E155" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>3</v>
+      </c>
+      <c r="B156" t="s">
+        <v>133</v>
+      </c>
+      <c r="C156" t="s">
+        <v>19</v>
+      </c>
+      <c r="D156" t="s">
+        <v>131</v>
+      </c>
+      <c r="E156" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>5</v>
+      </c>
+      <c r="B157" t="s">
+        <v>134</v>
+      </c>
+      <c r="C157" t="s">
+        <v>19</v>
+      </c>
+      <c r="D157" t="s">
+        <v>131</v>
+      </c>
+      <c r="E157" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>5</v>
+      </c>
+      <c r="B158" t="s">
+        <v>25</v>
+      </c>
+      <c r="C158" t="s">
+        <v>22</v>
+      </c>
+      <c r="D158" t="s">
+        <v>131</v>
+      </c>
+      <c r="E158" t="s">
+        <v>206</v>
+      </c>
+      <c r="G158">
+        <v>5</v>
+      </c>
+      <c r="H158" t="s">
+        <v>20</v>
+      </c>
+      <c r="I158" t="s">
+        <v>21</v>
+      </c>
+      <c r="J158" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>6</v>
+      </c>
+      <c r="B159" t="s">
+        <v>135</v>
+      </c>
+      <c r="C159" t="s">
+        <v>19</v>
+      </c>
+      <c r="D159" t="s">
+        <v>131</v>
+      </c>
+      <c r="E159" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>6</v>
+      </c>
+      <c r="B160" t="s">
+        <v>26</v>
+      </c>
+      <c r="C160" t="s">
+        <v>22</v>
+      </c>
+      <c r="D160" t="s">
+        <v>131</v>
+      </c>
+      <c r="E160" t="s">
+        <v>206</v>
+      </c>
+      <c r="G160">
+        <v>6</v>
+      </c>
+      <c r="H160" t="s">
+        <v>20</v>
+      </c>
+      <c r="I160" t="s">
+        <v>21</v>
+      </c>
+      <c r="J160" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>8</v>
+      </c>
+      <c r="B161" t="s">
+        <v>136</v>
+      </c>
+      <c r="C161" t="s">
+        <v>19</v>
+      </c>
+      <c r="D161" t="s">
+        <v>131</v>
+      </c>
+      <c r="E161" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>8</v>
+      </c>
+      <c r="B162" t="s">
+        <v>63</v>
+      </c>
+      <c r="C162" t="s">
+        <v>22</v>
+      </c>
+      <c r="D162" t="s">
+        <v>131</v>
+      </c>
+      <c r="E162" t="s">
+        <v>206</v>
+      </c>
+      <c r="G162">
+        <v>8</v>
+      </c>
+      <c r="H162" t="s">
+        <v>58</v>
+      </c>
+      <c r="I162" t="s">
+        <v>174</v>
+      </c>
+      <c r="J162" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>8</v>
+      </c>
+      <c r="B163" t="s">
+        <v>137</v>
+      </c>
+      <c r="C163" t="s">
+        <v>19</v>
+      </c>
+      <c r="D163" t="s">
+        <v>131</v>
+      </c>
+      <c r="E163" t="s">
+        <v>206</v>
+      </c>
+      <c r="F163">
+        <v>2</v>
+      </c>
+      <c r="G163">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>16</v>
+      </c>
+      <c r="B164" t="s">
+        <v>89</v>
+      </c>
+      <c r="C164" t="s">
+        <v>22</v>
+      </c>
+      <c r="D164" t="s">
+        <v>131</v>
+      </c>
+      <c r="E164" t="s">
+        <v>206</v>
+      </c>
+      <c r="G164">
+        <v>9</v>
+      </c>
+      <c r="H164" t="s">
+        <v>81</v>
+      </c>
+      <c r="I164" t="s">
+        <v>187</v>
+      </c>
+      <c r="J164" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>10</v>
+      </c>
+      <c r="B165" t="s">
+        <v>138</v>
+      </c>
+      <c r="C165" t="s">
+        <v>19</v>
+      </c>
+      <c r="D165" t="s">
+        <v>131</v>
+      </c>
+      <c r="E165" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>16</v>
+      </c>
+      <c r="B166" t="s">
+        <v>153</v>
+      </c>
+      <c r="C166" t="s">
+        <v>22</v>
+      </c>
+      <c r="D166" t="s">
+        <v>131</v>
+      </c>
+      <c r="E166" t="s">
+        <v>206</v>
+      </c>
+      <c r="G166">
+        <v>11</v>
+      </c>
+      <c r="H166" t="s">
+        <v>145</v>
+      </c>
+      <c r="I166" t="s">
+        <v>223</v>
+      </c>
+      <c r="J166" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>12</v>
+      </c>
+      <c r="B167" t="s">
+        <v>140</v>
+      </c>
+      <c r="C167" t="s">
+        <v>19</v>
+      </c>
+      <c r="D167" t="s">
+        <v>131</v>
+      </c>
+      <c r="E167" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>16</v>
+      </c>
+      <c r="B168" t="s">
+        <v>163</v>
+      </c>
+      <c r="C168" t="s">
+        <v>22</v>
+      </c>
+      <c r="D168" t="s">
+        <v>131</v>
+      </c>
+      <c r="E168" t="s">
+        <v>206</v>
+      </c>
+      <c r="G168">
+        <v>12</v>
+      </c>
+      <c r="H168" t="s">
+        <v>157</v>
+      </c>
+      <c r="I168" t="s">
+        <v>172</v>
+      </c>
+      <c r="J168" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>14</v>
+      </c>
+      <c r="B169" t="s">
+        <v>142</v>
+      </c>
+      <c r="C169" t="s">
+        <v>19</v>
+      </c>
+      <c r="D169" t="s">
+        <v>131</v>
+      </c>
+      <c r="E169" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>16</v>
+      </c>
+      <c r="B170" t="s">
+        <v>207</v>
+      </c>
+      <c r="C170" t="s">
+        <v>22</v>
+      </c>
+      <c r="D170" t="s">
+        <v>131</v>
+      </c>
+      <c r="E170" t="s">
+        <v>206</v>
+      </c>
+      <c r="J170" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>16</v>
+      </c>
+      <c r="B171" t="s">
+        <v>208</v>
+      </c>
+      <c r="C171" t="s">
+        <v>22</v>
+      </c>
+      <c r="D171" t="s">
+        <v>131</v>
+      </c>
+      <c r="E171" t="s">
+        <v>206</v>
+      </c>
+      <c r="J171" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>16</v>
+      </c>
+      <c r="B172" t="s">
+        <v>209</v>
+      </c>
+      <c r="C172" t="s">
+        <v>22</v>
+      </c>
+      <c r="D172" t="s">
+        <v>131</v>
+      </c>
+      <c r="E172" t="s">
+        <v>206</v>
+      </c>
+      <c r="J172" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="B173" t="s">
+        <v>144</v>
+      </c>
+      <c r="C173" t="s">
+        <v>19</v>
+      </c>
+      <c r="D173" t="s">
+        <v>145</v>
+      </c>
+      <c r="E173" t="s">
+        <v>223</v>
+      </c>
+      <c r="F173">
+        <v>3</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>2</v>
+      </c>
+      <c r="B174" t="s">
+        <v>146</v>
+      </c>
+      <c r="C174" t="s">
+        <v>19</v>
+      </c>
+      <c r="D174" t="s">
+        <v>145</v>
+      </c>
+      <c r="E174" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>3</v>
+      </c>
+      <c r="B175" t="s">
+        <v>147</v>
+      </c>
+      <c r="C175" t="s">
+        <v>19</v>
+      </c>
+      <c r="D175" t="s">
+        <v>145</v>
+      </c>
+      <c r="E175" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>4</v>
+      </c>
+      <c r="B176" t="s">
+        <v>148</v>
+      </c>
+      <c r="C176" t="s">
+        <v>19</v>
+      </c>
+      <c r="D176" t="s">
+        <v>145</v>
+      </c>
+      <c r="E176" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>6</v>
+      </c>
+      <c r="B177" t="s">
+        <v>149</v>
+      </c>
+      <c r="C177" t="s">
+        <v>19</v>
+      </c>
+      <c r="D177" t="s">
+        <v>145</v>
+      </c>
+      <c r="E177" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>7</v>
+      </c>
+      <c r="B178" t="s">
+        <v>150</v>
+      </c>
+      <c r="C178" t="s">
+        <v>19</v>
+      </c>
+      <c r="D178" t="s">
+        <v>145</v>
+      </c>
+      <c r="E178" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>8</v>
+      </c>
+      <c r="B179" t="s">
+        <v>151</v>
+      </c>
+      <c r="C179" t="s">
+        <v>19</v>
+      </c>
+      <c r="D179" t="s">
+        <v>145</v>
+      </c>
+      <c r="E179" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>9</v>
+      </c>
+      <c r="B180" t="s">
+        <v>152</v>
+      </c>
+      <c r="C180" t="s">
+        <v>19</v>
+      </c>
+      <c r="D180" t="s">
+        <v>145</v>
+      </c>
+      <c r="E180" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>12</v>
+      </c>
+      <c r="B181" t="s">
+        <v>64</v>
+      </c>
+      <c r="C181" t="s">
+        <v>22</v>
+      </c>
+      <c r="D181" t="s">
+        <v>145</v>
+      </c>
+      <c r="E181" t="s">
+        <v>223</v>
+      </c>
+      <c r="G181">
+        <v>12</v>
+      </c>
+      <c r="H181" t="s">
+        <v>58</v>
+      </c>
+      <c r="I181" t="s">
+        <v>174</v>
+      </c>
+      <c r="J181" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>14</v>
+      </c>
+      <c r="B182" t="s">
+        <v>164</v>
+      </c>
+      <c r="C182" t="s">
+        <v>22</v>
+      </c>
+      <c r="D182" t="s">
+        <v>145</v>
+      </c>
+      <c r="E182" t="s">
+        <v>223</v>
+      </c>
+      <c r="G182">
+        <v>14</v>
+      </c>
+      <c r="H182" t="s">
+        <v>157</v>
+      </c>
+      <c r="I182" t="s">
+        <v>172</v>
+      </c>
+      <c r="J182" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>15</v>
+      </c>
+      <c r="B183" t="s">
+        <v>155</v>
+      </c>
+      <c r="C183" t="s">
+        <v>19</v>
+      </c>
+      <c r="D183" t="s">
+        <v>145</v>
+      </c>
+      <c r="E183" t="s">
+        <v>223</v>
+      </c>
+      <c r="F183">
+        <v>2</v>
+      </c>
+      <c r="G183">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>16</v>
+      </c>
+      <c r="B184" t="s">
+        <v>224</v>
+      </c>
+      <c r="C184" t="s">
+        <v>22</v>
+      </c>
+      <c r="D184" t="s">
+        <v>145</v>
+      </c>
+      <c r="E184" t="s">
+        <v>223</v>
+      </c>
+      <c r="J184" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>16</v>
+      </c>
+      <c r="B185" t="s">
+        <v>225</v>
+      </c>
+      <c r="C185" t="s">
+        <v>22</v>
+      </c>
+      <c r="D185" t="s">
+        <v>145</v>
+      </c>
+      <c r="E185" t="s">
+        <v>223</v>
+      </c>
+      <c r="J185" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>16</v>
+      </c>
+      <c r="B186" t="s">
+        <v>226</v>
+      </c>
+      <c r="C186" t="s">
+        <v>22</v>
+      </c>
+      <c r="D186" t="s">
+        <v>145</v>
+      </c>
+      <c r="E186" t="s">
+        <v>223</v>
+      </c>
+      <c r="J186" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>16</v>
+      </c>
+      <c r="B187" t="s">
+        <v>227</v>
+      </c>
+      <c r="C187" t="s">
+        <v>22</v>
+      </c>
+      <c r="D187" t="s">
+        <v>145</v>
+      </c>
+      <c r="E187" t="s">
+        <v>223</v>
+      </c>
+      <c r="J187" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>1</v>
+      </c>
+      <c r="B188" t="s">
+        <v>156</v>
+      </c>
+      <c r="C188" t="s">
+        <v>19</v>
+      </c>
+      <c r="D188" t="s">
+        <v>157</v>
+      </c>
+      <c r="E188" t="s">
+        <v>172</v>
+      </c>
+      <c r="F188">
+        <v>3</v>
+      </c>
+      <c r="G188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>2</v>
+      </c>
+      <c r="B189" t="s">
+        <v>158</v>
+      </c>
+      <c r="C189" t="s">
+        <v>19</v>
+      </c>
+      <c r="D189" t="s">
+        <v>157</v>
+      </c>
+      <c r="E189" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>2</v>
+      </c>
+      <c r="B190" t="s">
+        <v>159</v>
+      </c>
+      <c r="C190" t="s">
+        <v>19</v>
+      </c>
+      <c r="D190" t="s">
+        <v>157</v>
+      </c>
+      <c r="E190" t="s">
+        <v>172</v>
+      </c>
+      <c r="F190">
+        <v>2</v>
+      </c>
+      <c r="G190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>4</v>
+      </c>
+      <c r="B191" t="s">
+        <v>160</v>
+      </c>
+      <c r="C191" t="s">
+        <v>19</v>
+      </c>
+      <c r="D191" t="s">
+        <v>157</v>
+      </c>
+      <c r="E191" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>4</v>
+      </c>
+      <c r="B192" t="s">
+        <v>24</v>
+      </c>
+      <c r="C192" t="s">
+        <v>22</v>
+      </c>
+      <c r="D192" t="s">
+        <v>157</v>
+      </c>
+      <c r="E192" t="s">
+        <v>172</v>
+      </c>
+      <c r="G192">
+        <v>4</v>
+      </c>
+      <c r="H192" t="s">
+        <v>20</v>
+      </c>
+      <c r="I192" t="s">
+        <v>21</v>
+      </c>
+      <c r="J192" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>5</v>
+      </c>
+      <c r="B193" t="s">
+        <v>161</v>
+      </c>
+      <c r="C193" t="s">
+        <v>19</v>
+      </c>
+      <c r="D193" t="s">
+        <v>157</v>
+      </c>
+      <c r="E193" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>6</v>
+      </c>
+      <c r="B194" t="s">
+        <v>49</v>
+      </c>
+      <c r="C194" t="s">
+        <v>22</v>
+      </c>
+      <c r="D194" t="s">
+        <v>157</v>
+      </c>
+      <c r="E194" t="s">
+        <v>172</v>
+      </c>
+      <c r="G194">
+        <v>6</v>
+      </c>
+      <c r="H194" t="s">
+        <v>46</v>
+      </c>
+      <c r="I194" t="s">
+        <v>173</v>
+      </c>
+      <c r="J194" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>6</v>
+      </c>
+      <c r="B195" t="s">
+        <v>27</v>
+      </c>
+      <c r="C195" t="s">
+        <v>22</v>
+      </c>
+      <c r="D195" t="s">
+        <v>157</v>
+      </c>
+      <c r="E195" t="s">
+        <v>172</v>
+      </c>
+      <c r="F195">
+        <v>2</v>
+      </c>
+      <c r="G195">
+        <v>7</v>
+      </c>
+      <c r="H195" t="s">
+        <v>20</v>
+      </c>
+      <c r="I195" t="s">
+        <v>21</v>
+      </c>
+      <c r="J195" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>11</v>
+      </c>
+      <c r="B196" t="s">
+        <v>139</v>
+      </c>
+      <c r="C196" t="s">
+        <v>22</v>
+      </c>
+      <c r="D196" t="s">
+        <v>157</v>
+      </c>
+      <c r="E196" t="s">
+        <v>172</v>
+      </c>
+      <c r="G196">
+        <v>11</v>
+      </c>
+      <c r="H196" t="s">
+        <v>131</v>
+      </c>
+      <c r="I196" t="s">
+        <v>206</v>
+      </c>
+      <c r="J196" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>16</v>
+      </c>
+      <c r="B197" t="s">
+        <v>210</v>
+      </c>
+      <c r="C197" t="s">
+        <v>22</v>
+      </c>
+      <c r="D197" t="s">
+        <v>157</v>
+      </c>
+      <c r="E197" t="s">
+        <v>172</v>
+      </c>
+      <c r="J197" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>16</v>
+      </c>
+      <c r="B198" t="s">
+        <v>211</v>
+      </c>
+      <c r="C198" t="s">
+        <v>22</v>
+      </c>
+      <c r="D198" t="s">
+        <v>157</v>
+      </c>
+      <c r="E198" t="s">
+        <v>172</v>
+      </c>
+      <c r="J198" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>16</v>
+      </c>
+      <c r="B199" t="s">
+        <v>212</v>
+      </c>
+      <c r="C199" t="s">
+        <v>22</v>
+      </c>
+      <c r="D199" t="s">
+        <v>157</v>
+      </c>
+      <c r="E199" t="s">
+        <v>172</v>
+      </c>
+      <c r="J199" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>16</v>
+      </c>
+      <c r="B200" t="s">
+        <v>213</v>
+      </c>
+      <c r="C200" t="s">
+        <v>22</v>
+      </c>
+      <c r="D200" t="s">
+        <v>157</v>
+      </c>
+      <c r="E200" t="s">
+        <v>172</v>
+      </c>
+      <c r="J200" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>16</v>
+      </c>
+      <c r="B201" t="s">
+        <v>214</v>
+      </c>
+      <c r="C201" t="s">
+        <v>22</v>
+      </c>
+      <c r="D201" t="s">
+        <v>157</v>
+      </c>
+      <c r="E201" t="s">
+        <v>172</v>
+      </c>
+      <c r="J201" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>16</v>
+      </c>
+      <c r="B202" t="s">
+        <v>215</v>
+      </c>
+      <c r="C202" t="s">
+        <v>22</v>
+      </c>
+      <c r="D202" t="s">
+        <v>157</v>
+      </c>
+      <c r="E202" t="s">
+        <v>172</v>
+      </c>
+      <c r="J202" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>16</v>
+      </c>
+      <c r="B203" t="s">
+        <v>216</v>
+      </c>
+      <c r="C203" t="s">
+        <v>22</v>
+      </c>
+      <c r="D203" t="s">
+        <v>157</v>
+      </c>
+      <c r="E203" t="s">
+        <v>172</v>
+      </c>
+      <c r="J203" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>16</v>
+      </c>
+      <c r="B204" t="s">
+        <v>217</v>
+      </c>
+      <c r="C204" t="s">
+        <v>22</v>
+      </c>
+      <c r="D204" t="s">
+        <v>157</v>
+      </c>
+      <c r="E204" t="s">
+        <v>172</v>
+      </c>
+      <c r="J204" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6885F1C4-BEDE-184C-B04E-3B0664732805}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>